--- a/database/company1.xlsx
+++ b/database/company1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_sha\OneDrive\Desktop\graduation-project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013EAD71-4B4A-40C2-92CE-896477D2C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562C0214-883E-4D8E-876B-AC7936E47ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>september  2024</t>
+  </si>
+  <si>
+    <t>Net Income</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,13 +183,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,19 +508,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.46484375" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +540,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -533,11 +554,20 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -547,11 +577,20 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -561,11 +600,20 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -575,11 +623,20 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -589,11 +646,20 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -612,8 +678,11 @@
       <c r="F7">
         <v>-2438914.6198700001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7">
+        <v>2985976.9037600001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -632,8 +701,11 @@
       <c r="F8">
         <v>2256784.4400599999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8">
+        <v>2815107.5085499999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -652,8 +724,11 @@
       <c r="F9">
         <v>-2256784.4400599999</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9">
+        <v>-2815107.508549999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -672,8 +747,11 @@
       <c r="F10">
         <v>2256784.4400599999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10">
+        <v>-2721896.9842900001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -692,8 +770,11 @@
       <c r="F11">
         <v>-2256784.4400599999</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11">
+        <v>2721896.9842900001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -712,8 +793,11 @@
       <c r="F12">
         <v>2256784.4400599999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12">
+        <v>-2721896.9842900001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -732,8 +816,11 @@
       <c r="F13">
         <v>-2256784.4400599999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13">
+        <v>2721896.9842900001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -752,8 +839,11 @@
       <c r="F14">
         <v>2256784.4400599999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14">
+        <v>-2721896.9842900001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -771,6 +861,9 @@
       </c>
       <c r="F15">
         <v>-2256784.4400599999</v>
+      </c>
+      <c r="G15">
+        <v>2721896.9842900001</v>
       </c>
     </row>
   </sheetData>
